--- a/CoreRulebook/Data/Archetypes/Outlaw.xlsx
+++ b/CoreRulebook/Data/Archetypes/Outlaw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\Archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03E5F1D-2307-4703-B0FE-8BEFB907B0AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9935C44A-87F9-451F-9492-87FE7C7BC86A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
   <si>
     <t>Level</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>1d6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thief of Knowledge (thief) </t>
+  </si>
+  <si>
+    <t>Career Choice</t>
   </si>
 </sst>
 </file>
@@ -526,7 +532,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -627,6 +633,9 @@
       <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
       <c r="E4">
         <v>4</v>
       </c>
@@ -953,6 +962,9 @@
       </c>
       <c r="C21" s="5" t="s">
         <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>39</v>
       </c>
       <c r="E21">
         <v>3</v>

--- a/CoreRulebook/Data/Archetypes/Outlaw.xlsx
+++ b/CoreRulebook/Data/Archetypes/Outlaw.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t xml:space="preserve">Level</t>
   </si>
@@ -55,33 +55,39 @@
     <t xml:space="preserve">Outlaw</t>
   </si>
   <si>
-    <t xml:space="preserve">Rudimentary Recovery </t>
+    <t xml:space="preserve">Rudimentary Recovery, Sly Action</t>
   </si>
   <si>
     <t xml:space="preserve">HP:</t>
   </si>
   <si>
-    <t xml:space="preserve">Career Choice</t>
+    <t xml:space="preserve">Career Choice, Career Feature I</t>
   </si>
   <si>
     <t xml:space="preserve">FP:</t>
   </si>
   <si>
+    <t xml:space="preserve">Artisan of the Unlawful I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armour:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Light Armour</t>
+  </si>
+  <si>
     <t xml:space="preserve">Novice</t>
   </si>
   <si>
-    <t xml:space="preserve">Armour:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Light Armour</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tools:</t>
   </si>
   <si>
     <t xml:space="preserve">Lockpicking Tools</t>
   </si>
   <si>
+    <t xml:space="preserve">Career Feature II</t>
+  </si>
+  <si>
     <t xml:space="preserve">Disciplines:</t>
   </si>
   <si>
@@ -94,19 +100,28 @@
     <t xml:space="preserve">Simple Weapons, Simple Ranged Weapons</t>
   </si>
   <si>
+    <t xml:space="preserve">Artisan of the Unlawful II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proficiencies:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose four from  Speed, Acrobatics, Chicanery, Stealth, Deception, Persuasion, Performance, Investigation and Observation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slippery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equipment:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Wand, a Thief Pack, and either a) a dagger or  b) a sling.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">Adept</t>
   </si>
   <si>
-    <t xml:space="preserve">Proficiencies:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose five from  Speed, Acrobatics, Chicanery, Stealth, Deception, Persuasion, Performance, Investigation and Observation. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equipment:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Wand, a Thief Pack, and either a) a dagger or  b) a sling.   </t>
+    <t xml:space="preserve">Career Feature III</t>
   </si>
   <si>
     <t xml:space="preserve">Memorised Spells</t>
@@ -115,28 +130,37 @@
     <t xml:space="preserve">Any three from the basic spells table. </t>
   </si>
   <si>
-    <t xml:space="preserve">Expert</t>
-  </si>
-  <si>
     <t xml:space="preserve">List1 Name</t>
   </si>
   <si>
     <t xml:space="preserve">Surprises</t>
   </si>
   <si>
+    <t xml:space="preserve">Danger Sense</t>
+  </si>
+  <si>
     <t xml:space="preserve">List2 Name</t>
   </si>
   <si>
     <t xml:space="preserve">Surprise Attack</t>
   </si>
   <si>
+    <t xml:space="preserve">Artisan of the Unlawful III</t>
+  </si>
+  <si>
     <t xml:space="preserve">Master</t>
   </si>
   <si>
+    <t xml:space="preserve">Career Feature IV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incredible Luck</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ascendant</t>
   </si>
   <si>
-    <t xml:space="preserve">Thief of Knowledge (thief) </t>
+    <t xml:space="preserve">Career Feature V</t>
   </si>
 </sst>
 </file>
@@ -267,17 +291,20 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="24.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -322,7 +349,7 @@
       </c>
       <c r="F2" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(J2,"d",K2)</f>
-        <v>1d8</v>
+        <v>1d6</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>9</v>
@@ -334,11 +361,11 @@
         <v>1</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L2" s="0" t="n">
         <f aca="false">J2*(K2+1)/2</f>
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -360,7 +387,7 @@
       </c>
       <c r="F3" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(J3,"d",K3)</f>
-        <v>1d8</v>
+        <v>1d6</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
@@ -374,11 +401,11 @@
       </c>
       <c r="K3" s="0" t="n">
         <f aca="false">K2</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L3" s="0" t="n">
         <f aca="false">J3*(K3+1)/2</f>
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -400,7 +427,7 @@
       </c>
       <c r="F4" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(J4,"d",K4)</f>
-        <v>2d8</v>
+        <v>2d6</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>14</v>
@@ -414,11 +441,11 @@
       </c>
       <c r="K4" s="0" t="n">
         <f aca="false">K3</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L4" s="0" t="n">
         <f aca="false">J4*(K4+1)/2</f>
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -430,6 +457,9 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="0" t="n">
@@ -437,7 +467,7 @@
       </c>
       <c r="F5" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(J5,"d",K5)</f>
-        <v>2d8</v>
+        <v>2d6</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>16</v>
@@ -451,11 +481,11 @@
       </c>
       <c r="K5" s="0" t="n">
         <f aca="false">K4</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L5" s="0" t="n">
         <f aca="false">J5*(K5+1)/2</f>
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -467,20 +497,20 @@
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>6</v>
       </c>
       <c r="F6" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(J6,"d",K6)</f>
-        <v>3d8</v>
+        <v>3d6</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J6" s="0" t="n">
         <f aca="false">J5+1</f>
@@ -488,14 +518,14 @@
       </c>
       <c r="K6" s="0" t="n">
         <f aca="false">K5</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L6" s="0" t="n">
         <f aca="false">J6*(K6+1)/2</f>
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="46.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
@@ -504,20 +534,23 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>7</v>
       </c>
       <c r="F7" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(J7,"d",K7)</f>
-        <v>3d8</v>
+        <v>3d6</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J7" s="0" t="n">
         <f aca="false">J6</f>
@@ -525,14 +558,14 @@
       </c>
       <c r="K7" s="0" t="n">
         <f aca="false">K6</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L7" s="0" t="n">
         <f aca="false">J7*(K7+1)/2</f>
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
@@ -541,20 +574,20 @@
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>8</v>
       </c>
       <c r="F8" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(J8,"d",K8)</f>
-        <v>4d8</v>
+        <v>4d6</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J8" s="0" t="n">
         <f aca="false">J7+1</f>
@@ -562,11 +595,11 @@
       </c>
       <c r="K8" s="0" t="n">
         <f aca="false">K7</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L8" s="0" t="n">
         <f aca="false">J8*(K8+1)/2</f>
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -578,20 +611,23 @@
         <v>4</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>26</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>9</v>
       </c>
       <c r="F9" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(J9,"d",K9)</f>
-        <v>4d8</v>
+        <v>4d6</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J9" s="0" t="n">
         <f aca="false">J8</f>
@@ -599,11 +635,11 @@
       </c>
       <c r="K9" s="0" t="n">
         <f aca="false">K8</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L9" s="0" t="n">
         <f aca="false">J9*(K9+1)/2</f>
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -615,20 +651,23 @@
         <v>4</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>29</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>10</v>
       </c>
       <c r="F10" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(J10,"d",K10)</f>
-        <v>5d8</v>
+        <v>5d6</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J10" s="0" t="n">
         <f aca="false">J9+1</f>
@@ -636,11 +675,11 @@
       </c>
       <c r="K10" s="0" t="n">
         <f aca="false">K9</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L10" s="0" t="n">
         <f aca="false">J10*(K10+1)/2</f>
-        <v>22.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -652,20 +691,23 @@
         <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>24</v>
+        <v>32</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>33</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="F11" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(J11,"d",K11)</f>
-        <v>5d8</v>
+        <v>5d6</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J11" s="0" t="n">
         <f aca="false">J10</f>
@@ -673,11 +715,11 @@
       </c>
       <c r="K11" s="0" t="n">
         <f aca="false">K10</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L11" s="0" t="n">
         <f aca="false">J11*(K11+1)/2</f>
-        <v>22.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -689,20 +731,20 @@
         <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>10</v>
       </c>
       <c r="F12" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(J12,"d",K12)</f>
-        <v>6d8</v>
+        <v>6d6</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="J12" s="0" t="n">
         <f aca="false">J11+1</f>
@@ -710,11 +752,11 @@
       </c>
       <c r="K12" s="0" t="n">
         <f aca="false">K11</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L12" s="0" t="n">
         <f aca="false">J12*(K12+1)/2</f>
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -726,20 +768,23 @@
         <v>5</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>38</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="F13" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(J13,"d",K13)</f>
-        <v>6d8</v>
+        <v>6d6</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J13" s="0" t="n">
         <f aca="false">J12</f>
@@ -747,11 +792,11 @@
       </c>
       <c r="K13" s="0" t="n">
         <f aca="false">K12</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L13" s="0" t="n">
         <f aca="false">J13*(K13+1)/2</f>
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -763,14 +808,14 @@
         <v>5</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>12</v>
       </c>
       <c r="F14" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(J14,"d",K14)</f>
-        <v>7d8</v>
+        <v>7d6</v>
       </c>
       <c r="J14" s="0" t="n">
         <f aca="false">J13+1</f>
@@ -778,11 +823,11 @@
       </c>
       <c r="K14" s="0" t="n">
         <f aca="false">K13</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L14" s="0" t="n">
         <f aca="false">J14*(K14+1)/2</f>
-        <v>31.5</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -794,14 +839,17 @@
         <v>5</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>41</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>12</v>
       </c>
       <c r="F15" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(J15,"d",K15)</f>
-        <v>7d8</v>
+        <v>7d6</v>
       </c>
       <c r="J15" s="0" t="n">
         <f aca="false">J14</f>
@@ -809,11 +857,11 @@
       </c>
       <c r="K15" s="0" t="n">
         <f aca="false">K14</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L15" s="0" t="n">
         <f aca="false">J15*(K15+1)/2</f>
-        <v>31.5</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -825,14 +873,14 @@
         <v>5</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="F16" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(J16,"d",K16)</f>
-        <v>8d8</v>
+        <v>8d6</v>
       </c>
       <c r="J16" s="0" t="n">
         <f aca="false">J15+1</f>
@@ -840,11 +888,11 @@
       </c>
       <c r="K16" s="0" t="n">
         <f aca="false">K15</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L16" s="0" t="n">
         <f aca="false">J16*(K16+1)/2</f>
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -856,14 +904,17 @@
         <v>6</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>43</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>15</v>
       </c>
       <c r="F17" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(J17,"d",K17)</f>
-        <v>8d8</v>
+        <v>8d6</v>
       </c>
       <c r="J17" s="0" t="n">
         <f aca="false">J16</f>
@@ -871,11 +922,11 @@
       </c>
       <c r="K17" s="0" t="n">
         <f aca="false">K16</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L17" s="0" t="n">
         <f aca="false">J17*(K17+1)/2</f>
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -887,14 +938,14 @@
         <v>6</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>15</v>
       </c>
       <c r="F18" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(J18,"d",K18)</f>
-        <v>9d8</v>
+        <v>9d6</v>
       </c>
       <c r="J18" s="0" t="n">
         <f aca="false">J17+1</f>
@@ -902,11 +953,11 @@
       </c>
       <c r="K18" s="0" t="n">
         <f aca="false">K17</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L18" s="0" t="n">
         <f aca="false">J18*(K18+1)/2</f>
-        <v>40.5</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -918,14 +969,17 @@
         <v>6</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>44</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>20</v>
       </c>
       <c r="F19" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(J19,"d",K19)</f>
-        <v>9d8</v>
+        <v>9d6</v>
       </c>
       <c r="J19" s="0" t="n">
         <f aca="false">J18</f>
@@ -933,11 +987,11 @@
       </c>
       <c r="K19" s="0" t="n">
         <f aca="false">K18</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L19" s="0" t="n">
         <f aca="false">J19*(K19+1)/2</f>
-        <v>40.5</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -949,14 +1003,14 @@
         <v>6</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>20</v>
       </c>
       <c r="F20" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(J20,"d",K20)</f>
-        <v>10d8</v>
+        <v>10d6</v>
       </c>
       <c r="J20" s="0" t="n">
         <f aca="false">J19+1</f>
@@ -964,11 +1018,11 @@
       </c>
       <c r="K20" s="0" t="n">
         <f aca="false">K19</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L20" s="0" t="n">
         <f aca="false">J20*(K20+1)/2</f>
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -980,17 +1034,17 @@
         <v>7</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>20</v>
       </c>
       <c r="F21" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(J21,"d",K21)</f>
-        <v>10d8</v>
+        <v>10d6</v>
       </c>
       <c r="J21" s="0" t="n">
         <f aca="false">J20</f>
@@ -998,11 +1052,11 @@
       </c>
       <c r="K21" s="0" t="n">
         <f aca="false">K20</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L21" s="0" t="n">
         <f aca="false">J21*(K21+1)/2</f>
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/CoreRulebook/Data/Archetypes/Outlaw.xlsx
+++ b/CoreRulebook/Data/Archetypes/Outlaw.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
   <si>
     <t xml:space="preserve">Level</t>
   </si>
@@ -67,6 +67,9 @@
     <t xml:space="preserve">FP:</t>
   </si>
   <si>
+    <t xml:space="preserve">Novice</t>
+  </si>
+  <si>
     <t xml:space="preserve">Artisan of the Unlawful I</t>
   </si>
   <si>
@@ -76,9 +79,6 @@
     <t xml:space="preserve">Light Armour</t>
   </si>
   <si>
-    <t xml:space="preserve">Novice</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tools:</t>
   </si>
   <si>
@@ -100,6 +100,9 @@
     <t xml:space="preserve">Simple Weapons, Simple Ranged Weapons</t>
   </si>
   <si>
+    <t xml:space="preserve">Adept</t>
+  </si>
+  <si>
     <t xml:space="preserve">Artisan of the Unlawful II</t>
   </si>
   <si>
@@ -118,9 +121,6 @@
     <t xml:space="preserve">A Wand, a Thief Pack, and either a) a dagger or  b) a sling.   </t>
   </si>
   <si>
-    <t xml:space="preserve">Adept</t>
-  </si>
-  <si>
     <t xml:space="preserve">Career Feature III</t>
   </si>
   <si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t xml:space="preserve">Any three from the basic spells table. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expert</t>
   </si>
   <si>
     <t xml:space="preserve">List1 Name</t>
@@ -291,7 +294,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -457,10 +460,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>5</v>
@@ -470,10 +473,10 @@
         <v>2d6</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J5" s="0" t="n">
         <f aca="false">J4</f>
@@ -497,7 +500,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>6</v>
@@ -534,7 +537,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>21</v>
@@ -574,7 +577,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>8</v>
@@ -611,10 +614,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>9</v>
@@ -624,10 +627,10 @@
         <v>4d6</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J9" s="0" t="n">
         <f aca="false">J8</f>
@@ -642,7 +645,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="35.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
@@ -651,10 +654,10 @@
         <v>4</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>10</v>
@@ -664,10 +667,10 @@
         <v>5d6</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J10" s="0" t="n">
         <f aca="false">J9+1</f>
@@ -682,7 +685,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
@@ -691,7 +694,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>33</v>
@@ -731,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>10</v>
@@ -741,10 +744,10 @@
         <v>6d6</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J12" s="0" t="n">
         <f aca="false">J11+1</f>
@@ -768,10 +771,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>12</v>
@@ -781,10 +784,10 @@
         <v>6d6</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J13" s="0" t="n">
         <f aca="false">J12</f>
@@ -808,7 +811,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>12</v>
@@ -839,10 +842,10 @@
         <v>5</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>12</v>
@@ -873,7 +876,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>15</v>
@@ -904,10 +907,10 @@
         <v>6</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>15</v>
@@ -938,7 +941,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>15</v>
@@ -969,10 +972,10 @@
         <v>6</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>20</v>
@@ -1003,7 +1006,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>20</v>
@@ -1034,10 +1037,10 @@
         <v>7</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>20</v>
